--- a/techniqo/data_new_ticker/METROPOLIS.xlsx
+++ b/techniqo/data_new_ticker/METROPOLIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12671,6 +12671,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2020.8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>202603</v>
+      </c>
+      <c r="G352" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>2028.8</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2028.8</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1935.7</v>
+      </c>
+      <c r="F353" t="n">
+        <v>82695</v>
+      </c>
+      <c r="G353" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/METROPOLIS.xlsx
+++ b/techniqo/data_new_ticker/METROPOLIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12721,6 +12721,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1926.3</v>
+      </c>
+      <c r="F354" t="n">
+        <v>65205</v>
+      </c>
+      <c r="G354" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1969.35</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1849.2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1868</v>
+      </c>
+      <c r="F355" t="n">
+        <v>377136</v>
+      </c>
+      <c r="G355" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
